--- a/DOM_Banner/output/dept0713/Stephen A Klotz_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Stephen A Klotz_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, Department of Medicine, University of Arizona, Tucson; Petersen Clinics, University of Arizona, Tucson; Petersen Clinics, University of Arizona, Tucson; Petersen Clinics, University of Arizona, Tucson; Petersen Clinics, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311090463</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Genie Is Out of the Bottle: Telemedicine Is More Effective Than Brick-and-Mortar Clinics in the Care of HIV-Infected Outpatients</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.11.012</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36495936</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.11.012</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ sklotz@u.arizona.edu.; University of Arizona, Tucson, AZ sklotz@u.arizona.edu.; University of Arizona, Tucson, AZ sklotz@u.arizona.edu.; University of Arizona, Tucson, AZ sklotz@u.arizona.edu.; University of Arizona, Tucson, AZ sklotz@u.arizona.edu.; University of Arizona, Tucson, AZ sklotz@u.arizona.edu.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4322720088</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Antivenom for Severe Scorpion Envenomation in Arizona</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The New England Journal of Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Massachusetts Medical Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1056/nejmc2029813</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36856625</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1056/nejmc2029813</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Southwestern Biological Institute, Tucson, AZ, USA; Division of Infectious Diseases, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4324381713</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The birds and the bees: Western Kingbirds (Tyrannus verticalis) prefer drone honeybees</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The Wilson Journal of Ornithology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Wilson Ornithological Society</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1676/22-00082</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>es</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1676/22-00082</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stephen A. Klotz, Julia B. Jernberg, Richard Robbins</t>
+          <t>Greta J. Binford, Samuel D. Robinson, Stephen A. Klotz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377826892</t>
+          <t>Professor of Biology, Lewis &amp; Clark College, Portland, OR, 97219, USA; Institute for Molecular Bioscience, The University of Queensland, Brisbane, QLD, 4072, Australia; Division of Infectious Diseases, Department of Medicine, University of Arizona, 1501 N. Campbell Ave., Tucson, AZ, 85724, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Turn Healthcare Workers Loose with Outpatient Telemedicine—Let Them Decide Its Fate; No Top-Down Decisions on What It Can and Cannot Do</t>
+          <t>https://openalex.org/W4386913058</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Justin O Schmidt - His extraordinary impact on toxinology and arthropod biodiversity science</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>The American Journal of Medicine</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Toxicon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.05.005</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.toxicon.2023.107287</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37230402</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.05.005</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37740990</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.toxicon.2023.107287</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greta J. Binford, Samuel D. Robinson, Stephen A. Klotz</t>
+          <t>Stephen A. Klotz, Krystal Fimbres, Lawrence York</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386913058</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Justin O Schmidt - His extraordinary impact on toxinology and arthropod biodiversity science</t>
+          <t>https://openalex.org/W4386987707</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Infectious Diseases Telemedicine to the Arizona Department of Corrections During SARS-CoV-2 Pandemic. A Short Report.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Toxicon</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Southwest journal of pulmonary, critical care &amp; sleep</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.toxicon.2023.107287</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.13175/swjpccs038-23</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37740990</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.toxicon.2023.107287</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.13175/swjpccs038-23</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,27 +882,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Stephen A. Klotz, Krystal Fimbres, Lawrence York</t>
+          <t>Nathan Kummet, Neha Mishra, Ana Claudia Marques Barbosa Diaz, Nicholas Cusick, Stephen A. Klotz, Nafees Ahmad</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386987707</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Infectious Diseases Telemedicine to the Arizona Department of Corrections During SARS-CoV-2 Pandemic. A Short Report.</t>
+          <t>https://openalex.org/W4387304862</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>Genetic Characterization of HIV-1 tat Gene from Virologically Controlled HIV-infected Older Patients on Long-term Antiretroviral Therapy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Southwest journal of pulmonary, critical care &amp; sleep</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -882,50 +912,55 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.13175/swjpccs038-23</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.20944/preprints202310.0046.v1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.13175/swjpccs038-23</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.20944/preprints202310.0046.v1</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nathan Kummet, Neha Mishra, Ana Claudia Marques Barbosa Diaz, Nicholas Cusick, Stephen A. Klotz, Nafees Ahmad</t>
+          <t>Stephen A. Klotz, Julia B. Jernberg, Richard Robbins</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387304862</t>
+          <t>Department of Medicine, University of Arizona, Tucson; Department of Medicine, University of Arizona, Tucson; Department of Medicine, University of Arizona, Tucson</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Genetic Characterization of HIV-1 tat Gene from Virologically Controlled HIV-infected Older Patients on Long-term Antiretroviral Therapy</t>
+          <t>https://openalex.org/W4377826892</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>Turn Healthcare Workers Loose with Outpatient Telemedicine—Let Them Decide Its Fate; No Top-Down Decisions on What It Can and Cannot Do</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The American Journal of Medicine</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202310.0046.v1</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.05.005</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202310.0046.v1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37230402</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.amjmed.2023.05.005</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Stephen A Klotz_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Stephen A Klotz_2023.xlsx
@@ -708,22 +708,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Greta J. Binford, Samuel D. Robinson, Stephen A. Klotz</t>
+          <t>Stephen A. Klotz, Julia B. Jernberg, Richard Robbins</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Professor of Biology, Lewis &amp; Clark College, Portland, OR, 97219, USA; Institute for Molecular Bioscience, The University of Queensland, Brisbane, QLD, 4072, Australia; Division of Infectious Diseases, Department of Medicine, University of Arizona, 1501 N. Campbell Ave., Tucson, AZ, 85724, USA</t>
+          <t>Department of Medicine, University of Arizona, Tucson; Department of Medicine, University of Arizona, Tucson; Department of Medicine, University of Arizona, Tucson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386913058</t>
+          <t>https://openalex.org/W4377826892</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Justin O Schmidt - His extraordinary impact on toxinology and arthropod biodiversity science</t>
+          <t>Turn Healthcare Workers Loose with Outpatient Telemedicine—Let Them Decide Its Fate; No Top-Down Decisions on What It Can and Cannot Do</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Toxicon</t>
+          <t>The American Journal of Medicine</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.toxicon.2023.107287</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.05.005</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37740990</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37230402</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.toxicon.2023.107287</t>
+          <t>https://doi.org/10.1016/j.amjmed.2023.05.005</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Stephen A. Klotz, Krystal Fimbres, Lawrence York</t>
+          <t>Greta J. Binford, Samuel D. Robinson, Stephen A. Klotz</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; </t>
+          <t>Professor of Biology, Lewis &amp; Clark College, Portland, OR, 97219, USA; Institute for Molecular Bioscience, The University of Queensland, Brisbane, QLD, 4072, Australia; Division of Infectious Diseases, Department of Medicine, University of Arizona, 1501 N. Campbell Ave., Tucson, AZ, 85724, USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386987707</t>
+          <t>https://openalex.org/W4386913058</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Infectious Diseases Telemedicine to the Arizona Department of Corrections During SARS-CoV-2 Pandemic. A Short Report.</t>
+          <t>Justin O Schmidt - His extraordinary impact on toxinology and arthropod biodiversity science</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Southwest journal of pulmonary, critical care &amp; sleep</t>
+          <t>Toxicon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.13175/swjpccs038-23</t>
+          <t>https://doi.org/10.1016/j.toxicon.2023.107287</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37740990</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.13175/swjpccs038-23</t>
+          <t>https://doi.org/10.1016/j.toxicon.2023.107287</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,32 +882,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nathan Kummet, Neha Mishra, Ana Claudia Marques Barbosa Diaz, Nicholas Cusick, Stephen A. Klotz, Nafees Ahmad</t>
+          <t>Stephen A. Klotz, Krystal Fimbres, Lawrence York</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387304862</t>
+          <t>https://openalex.org/W4386987707</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Genetic Characterization of HIV-1 tat Gene from Virologically Controlled HIV-infected Older Patients on Long-term Antiretroviral Therapy</t>
+          <t>Infectious Diseases Telemedicine to the Arizona Department of Corrections During SARS-CoV-2 Pandemic. A Short Report.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Southwest journal of pulmonary, critical care &amp; sleep</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202310.0046.v1</t>
+          <t>https://doi.org/10.13175/swjpccs038-23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202310.0046.v1</t>
+          <t>https://doi.org/10.13175/swjpccs038-23</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Stephen A. Klotz, Julia B. Jernberg, Richard Robbins</t>
+          <t>Nathan Kummet, Neha Mishra, Ana Claudia Marques Barbosa Diaz, Nicholas Cusick, Stephen A. Klotz, Nafees Ahmad</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona, Tucson; Department of Medicine, University of Arizona, Tucson; Department of Medicine, University of Arizona, Tucson</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377826892</t>
+          <t>https://openalex.org/W4387304862</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Turn Healthcare Workers Loose with Outpatient Telemedicine—Let Them Decide Its Fate; No Top-Down Decisions on What It Can and Cannot Do</t>
+          <t>Genetic Characterization of HIV-1 tat Gene from Virologically Controlled HIV-infected Older Patients on Long-term Antiretroviral Therapy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>The American Journal of Medicine</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.05.005</t>
+          <t>https://doi.org/10.20944/preprints202310.0046.v1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37230402</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amjmed.2023.05.005</t>
+          <t>https://doi.org/10.20944/preprints202310.0046.v1</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
